--- a/databases/xlsx/import_all/import 21.06.xlsx
+++ b/databases/xlsx/import_all/import 21.06.xlsx
@@ -3339,10 +3339,10 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F213" activeCellId="0" sqref="F213"/>
+      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -8519,10 +8519,10 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>

--- a/databases/xlsx/import_all/import 21.06.xlsx
+++ b/databases/xlsx/import_all/import 21.06.xlsx
@@ -3338,11 +3338,13 @@
   </sheetPr>
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="1:1 2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -8519,10 +8521,10 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="2" sqref="1:1 2:2 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>

--- a/databases/xlsx/import_all/import 21.06.xlsx
+++ b/databases/xlsx/import_all/import 21.06.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="528">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -3339,12 +3339,12 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="1:1 2:2"/>
+      <selection pane="bottomLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -5773,7 +5773,9 @@
       <c r="H99" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I99" s="7"/>
+      <c r="I99" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="60"/>
@@ -8521,10 +8523,10 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="2" sqref="1:1 2:2 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>

--- a/databases/xlsx/import_all/import 21.06.xlsx
+++ b/databases/xlsx/import_all/import 21.06.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="528">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -3339,12 +3339,12 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="I213" activeCellId="0" sqref="I213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -6745,7 +6745,9 @@
       <c r="H139" s="67" t="n">
         <v>5</v>
       </c>
-      <c r="I139" s="7"/>
+      <c r="I139" s="7" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="81"/>
@@ -7559,7 +7561,9 @@
       <c r="H173" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="I173" s="7"/>
+      <c r="I173" s="7" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="90"/>
@@ -8430,7 +8434,9 @@
       <c r="H209" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="I209" s="7"/>
+      <c r="I209" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="97"/>
@@ -8526,7 +8532,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>

--- a/databases/xlsx/import_all/import 21.06.xlsx
+++ b/databases/xlsx/import_all/import 21.06.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="529">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -1285,6 +1285,9 @@
   </si>
   <si>
     <t xml:space="preserve">36398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цикл</t>
   </si>
   <si>
     <t xml:space="preserve">Бакши ИП</t>
@@ -3336,15 +3339,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I213" activeCellId="0" sqref="I213"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="74:74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -3355,6 +3358,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="76.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +5154,7 @@
         <v>97210</v>
       </c>
       <c r="C74" s="32" t="n">
-        <v>101204</v>
+        <v>1204</v>
       </c>
       <c r="D74" s="32" t="n">
         <v>1</v>
@@ -5168,10 +5172,16 @@
         <v>4</v>
       </c>
       <c r="I74" s="7"/>
+      <c r="J74" s="32" t="n">
+        <v>101204</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B75" s="32" t="n">
         <v>87377</v>
@@ -5183,10 +5193,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H75" s="12" t="n">
         <v>4</v>
@@ -5195,7 +5205,7 @@
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B76" s="32" t="n">
         <v>97508</v>
@@ -5207,10 +5217,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H76" s="12" t="n">
         <v>4</v>
@@ -5219,7 +5229,7 @@
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="41" t="n">
         <v>23470</v>
@@ -5231,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H77" s="12" t="n">
         <v>4</v>
@@ -5243,7 +5253,7 @@
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B78" s="41" t="n">
         <v>5838</v>
@@ -5255,10 +5265,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H78" s="12" t="n">
         <v>4</v>
@@ -5267,7 +5277,7 @@
     </row>
     <row r="79" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B79" s="41" t="n">
         <v>14221</v>
@@ -5279,10 +5289,10 @@
         <v>1</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H79" s="12" t="n">
         <v>4</v>
@@ -5291,7 +5301,7 @@
     </row>
     <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" s="32" t="n">
         <v>80782</v>
@@ -5303,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H80" s="12" t="n">
         <v>4</v>
@@ -5315,7 +5325,7 @@
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B81" s="46" t="n">
         <v>59389</v>
@@ -5327,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>12</v>
@@ -5342,7 +5352,7 @@
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B82" s="32" t="n">
         <v>28098</v>
@@ -5354,10 +5364,10 @@
         <v>1</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H82" s="12" t="n">
         <v>4</v>
@@ -5366,7 +5376,7 @@
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B83" s="32" t="n">
         <v>84250</v>
@@ -5378,10 +5388,10 @@
         <v>1</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H83" s="12" t="n">
         <v>4</v>
@@ -5390,7 +5400,7 @@
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" s="32" t="n">
         <v>115805</v>
@@ -5402,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H84" s="12" t="n">
         <v>4</v>
@@ -5414,7 +5424,7 @@
     </row>
     <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B85" s="54" t="n">
         <v>22346</v>
@@ -5429,7 +5439,7 @@
         <v>34431</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H85" s="12" t="n">
         <v>4</v>
@@ -5438,7 +5448,7 @@
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B86" s="54" t="n">
         <v>69711</v>
@@ -5450,10 +5460,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H86" s="12" t="n">
         <v>4</v>
@@ -5474,10 +5484,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>11</v>
@@ -5489,7 +5499,7 @@
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B88" s="54" t="n">
         <v>40161</v>
@@ -5501,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H88" s="12" t="n">
         <v>4</v>
@@ -5513,7 +5523,7 @@
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B89" s="9" t="n">
         <v>65566</v>
@@ -5525,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H89" s="12" t="n">
         <v>4</v>
@@ -5537,7 +5547,7 @@
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B90" s="54" t="n">
         <v>79459</v>
@@ -5549,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H90" s="12" t="n">
         <v>4</v>
@@ -5561,7 +5571,7 @@
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B91" s="29" t="n">
         <v>20075</v>
@@ -5573,10 +5583,10 @@
         <v>1</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H91" s="12" t="n">
         <v>4</v>
@@ -5585,7 +5595,7 @@
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B92" s="54" t="n">
         <v>68157</v>
@@ -5597,10 +5607,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H92" s="12" t="n">
         <v>4</v>
@@ -5609,7 +5619,7 @@
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B93" s="54" t="n">
         <v>40781</v>
@@ -5621,10 +5631,10 @@
         <v>1</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H93" s="12" t="n">
         <v>4</v>
@@ -5633,7 +5643,7 @@
     </row>
     <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B94" s="32" t="n">
         <v>376877</v>
@@ -5645,10 +5655,10 @@
         <v>1</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H94" s="12" t="n">
         <v>4</v>
@@ -5657,7 +5667,7 @@
     </row>
     <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B95" s="9" t="n">
         <v>38296</v>
@@ -5669,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H95" s="12" t="n">
         <v>4</v>
@@ -5681,7 +5691,7 @@
     </row>
     <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B96" s="32" t="n">
         <v>51848</v>
@@ -5693,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H96" s="12" t="n">
         <v>4</v>
@@ -5705,7 +5715,7 @@
     </row>
     <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B97" s="32" t="n">
         <v>19323</v>
@@ -5720,7 +5730,7 @@
         <v>282335</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H97" s="12" t="n">
         <v>4</v>
@@ -5729,7 +5739,7 @@
     </row>
     <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B98" s="32" t="n">
         <v>92</v>
@@ -5741,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="E98" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" s="59" t="s">
         <v>237</v>
-      </c>
-      <c r="F98" s="59" t="s">
-        <v>236</v>
       </c>
       <c r="H98" s="12" t="n">
         <v>4</v>
@@ -5753,7 +5763,7 @@
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="47" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B99" s="32" t="n">
         <v>14125</v>
@@ -5765,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F99" s="59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H99" s="12" t="n">
         <v>4</v>
@@ -5790,7 +5800,7 @@
     </row>
     <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B101" s="9" t="n">
         <v>102199</v>
@@ -5802,21 +5812,21 @@
         <v>1</v>
       </c>
       <c r="E101" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F101" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="H101" s="67" t="n">
         <v>5</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B102" s="9" t="n">
         <v>324024</v>
@@ -5828,10 +5838,10 @@
         <v>1</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F102" s="69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H102" s="67" t="n">
         <v>5</v>
@@ -5840,7 +5850,7 @@
     </row>
     <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B103" s="9" t="n">
         <v>380775</v>
@@ -5852,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F103" s="69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H103" s="67" t="n">
         <v>5</v>
@@ -5864,7 +5874,7 @@
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B104" s="9" t="n">
         <v>13642</v>
@@ -5876,10 +5886,10 @@
         <v>60</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F104" s="69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H104" s="67" t="n">
         <v>5</v>
@@ -5888,7 +5898,7 @@
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B105" s="9" t="n">
         <v>125493</v>
@@ -5900,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F105" s="71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H105" s="67" t="n">
         <v>5</v>
@@ -5912,7 +5922,7 @@
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B106" s="9" t="n">
         <v>44139</v>
@@ -5924,10 +5934,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F106" s="69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H106" s="67" t="n">
         <v>5</v>
@@ -5936,7 +5946,7 @@
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B107" s="9" t="n">
         <v>153727</v>
@@ -5951,7 +5961,7 @@
         <v>5006</v>
       </c>
       <c r="F107" s="69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H107" s="67" t="n">
         <v>5</v>
@@ -5960,7 +5970,7 @@
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B108" s="9" t="n">
         <v>260288</v>
@@ -5972,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="E108" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F108" s="69" t="s">
         <v>261</v>
-      </c>
-      <c r="F108" s="69" t="s">
-        <v>260</v>
       </c>
       <c r="H108" s="67" t="n">
         <v>5</v>
@@ -5984,7 +5994,7 @@
     </row>
     <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B109" s="9" t="n">
         <v>4070</v>
@@ -5996,10 +6006,10 @@
         <v>1</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F109" s="69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H109" s="67" t="n">
         <v>5</v>
@@ -6008,7 +6018,7 @@
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B110" s="9" t="n">
         <v>463191</v>
@@ -6020,10 +6030,10 @@
         <v>1</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F110" s="69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H110" s="67" t="n">
         <v>5</v>
@@ -6032,7 +6042,7 @@
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B111" s="9" t="n">
         <v>548734</v>
@@ -6044,10 +6054,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F111" s="69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H111" s="67" t="n">
         <v>5</v>
@@ -6056,7 +6066,7 @@
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B112" s="75" t="n">
         <v>51554</v>
@@ -6068,10 +6078,10 @@
         <v>1</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F112" s="69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>6</v>
@@ -6083,7 +6093,7 @@
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B113" s="9" t="n">
         <v>3335</v>
@@ -6098,7 +6108,7 @@
         <v>27372</v>
       </c>
       <c r="F113" s="71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>6</v>
@@ -6110,7 +6120,7 @@
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B114" s="79" t="n">
         <v>93059</v>
@@ -6122,10 +6132,10 @@
         <v>1</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F114" s="69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H114" s="67" t="n">
         <v>5</v>
@@ -6134,7 +6144,7 @@
     </row>
     <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="68" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B115" s="9" t="n">
         <v>40104</v>
@@ -6149,7 +6159,7 @@
         <v>101522115</v>
       </c>
       <c r="F115" s="69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H115" s="67" t="n">
         <v>5</v>
@@ -6158,7 +6168,7 @@
     </row>
     <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B116" s="9" t="n">
         <v>19847</v>
@@ -6170,10 +6180,10 @@
         <v>1</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H116" s="67" t="n">
         <v>5</v>
@@ -6182,7 +6192,7 @@
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B117" s="9" t="n">
         <v>27204</v>
@@ -6194,10 +6204,10 @@
         <v>1</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F117" s="69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H117" s="67" t="n">
         <v>5</v>
@@ -6206,7 +6216,7 @@
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B118" s="9" t="n">
         <v>249845</v>
@@ -6218,10 +6228,10 @@
         <v>1</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F118" s="69" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H118" s="67" t="n">
         <v>5</v>
@@ -6230,7 +6240,7 @@
     </row>
     <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B119" s="9" t="n">
         <v>399994</v>
@@ -6242,10 +6252,10 @@
         <v>1</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F119" s="69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H119" s="67" t="n">
         <v>5</v>
@@ -6254,7 +6264,7 @@
     </row>
     <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B120" s="9" t="n">
         <v>80795</v>
@@ -6266,10 +6276,10 @@
         <v>1</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F120" s="69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H120" s="67" t="n">
         <v>5</v>
@@ -6278,7 +6288,7 @@
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B121" s="9" t="n">
         <v>201005</v>
@@ -6290,10 +6300,10 @@
         <v>1</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F121" s="69" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H121" s="67" t="n">
         <v>5</v>
@@ -6302,7 +6312,7 @@
     </row>
     <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B122" s="9" t="n">
         <v>347561</v>
@@ -6314,10 +6324,10 @@
         <v>1</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F122" s="69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H122" s="67" t="n">
         <v>5</v>
@@ -6326,7 +6336,7 @@
     </row>
     <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B123" s="9" t="n">
         <v>288106</v>
@@ -6338,10 +6348,10 @@
         <v>1</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F123" s="69" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>13</v>
@@ -6353,7 +6363,7 @@
     </row>
     <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B124" s="9" t="n">
         <v>392079</v>
@@ -6368,7 +6378,7 @@
         <v>806</v>
       </c>
       <c r="F124" s="69" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H124" s="67" t="n">
         <v>5</v>
@@ -6377,7 +6387,7 @@
     </row>
     <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B125" s="9" t="n">
         <v>131733</v>
@@ -6389,10 +6399,10 @@
         <v>1</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F125" s="69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H125" s="67" t="n">
         <v>5</v>
@@ -6401,7 +6411,7 @@
     </row>
     <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B126" s="9" t="n">
         <v>29110</v>
@@ -6416,7 +6426,7 @@
         <v>2125</v>
       </c>
       <c r="F126" s="69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H126" s="67" t="n">
         <v>5</v>
@@ -6425,7 +6435,7 @@
     </row>
     <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B127" s="9" t="n">
         <v>86552</v>
@@ -6437,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F127" s="69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H127" s="67" t="n">
         <v>5</v>
@@ -6449,7 +6459,7 @@
     </row>
     <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B128" s="9" t="n">
         <v>293507</v>
@@ -6461,10 +6471,10 @@
         <v>1</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F128" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H128" s="67" t="n">
         <v>5</v>
@@ -6473,7 +6483,7 @@
     </row>
     <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B129" s="9" t="n">
         <v>22032</v>
@@ -6485,10 +6495,10 @@
         <v>20</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F129" s="69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H129" s="67" t="n">
         <v>5</v>
@@ -6497,7 +6507,7 @@
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B130" s="9" t="n">
         <v>265396</v>
@@ -6509,10 +6519,10 @@
         <v>1</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F130" s="69" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H130" s="67" t="n">
         <v>5</v>
@@ -6521,7 +6531,7 @@
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B131" s="9" t="n">
         <v>574318</v>
@@ -6536,7 +6546,7 @@
         <v>35821</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H131" s="67" t="n">
         <v>5</v>
@@ -6545,7 +6555,7 @@
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B132" s="9" t="n">
         <v>30330</v>
@@ -6560,7 +6570,7 @@
         <v>103473542</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>12</v>
@@ -6572,7 +6582,7 @@
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B133" s="9" t="n">
         <v>26099</v>
@@ -6584,10 +6594,10 @@
         <v>1</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>13</v>
@@ -6599,7 +6609,7 @@
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B134" s="9" t="n">
         <v>45043</v>
@@ -6611,10 +6621,10 @@
         <v>1</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H134" s="67" t="n">
         <v>5</v>
@@ -6623,7 +6633,7 @@
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B135" s="9" t="n">
         <v>59424</v>
@@ -6638,7 +6648,7 @@
         <v>4616</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H135" s="67" t="n">
         <v>5</v>
@@ -6647,7 +6657,7 @@
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B136" s="9" t="n">
         <v>69465.54</v>
@@ -6659,10 +6669,10 @@
         <v>20</v>
       </c>
       <c r="E136" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F136" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="H136" s="67" t="n">
         <v>5</v>
@@ -6671,7 +6681,7 @@
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B137" s="9" t="n">
         <v>67645</v>
@@ -6683,10 +6693,10 @@
         <v>1</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>14</v>
@@ -6698,7 +6708,7 @@
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B138" s="9" t="n">
         <v>17252</v>
@@ -6710,10 +6720,10 @@
         <v>1</v>
       </c>
       <c r="E138" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F138" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>338</v>
       </c>
       <c r="H138" s="67" t="n">
         <v>5</v>
@@ -6722,7 +6732,7 @@
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B139" s="9" t="n">
         <v>13414</v>
@@ -6734,10 +6744,10 @@
         <v>1</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>14</v>
@@ -6746,7 +6756,7 @@
         <v>5</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,7 +6772,7 @@
     </row>
     <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B141" s="29" t="n">
         <v>15585</v>
@@ -6777,18 +6787,18 @@
         <v>2262538</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H141" s="86" t="n">
         <v>6</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B142" s="29" t="n">
         <v>45710</v>
@@ -6803,7 +6813,7 @@
         <v>5521045</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H142" s="86" t="n">
         <v>6</v>
@@ -6812,7 +6822,7 @@
     </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B143" s="29" t="n">
         <v>37727</v>
@@ -6827,7 +6837,7 @@
         <v>2261340</v>
       </c>
       <c r="F143" s="24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H143" s="86" t="n">
         <v>6</v>
@@ -6836,7 +6846,7 @@
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B144" s="29" t="n">
         <v>47544</v>
@@ -6851,7 +6861,7 @@
         <v>5510929</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H144" s="86" t="n">
         <v>6</v>
@@ -6860,7 +6870,7 @@
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B145" s="29" t="n">
         <v>69881</v>
@@ -6875,7 +6885,7 @@
         <v>5511505</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H145" s="86" t="n">
         <v>6</v>
@@ -6884,7 +6894,7 @@
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B146" s="29" t="n">
         <v>39617</v>
@@ -6899,7 +6909,7 @@
         <v>5510311</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H146" s="86" t="n">
         <v>6</v>
@@ -6908,7 +6918,7 @@
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B147" s="29" t="n">
         <v>50405</v>
@@ -6923,7 +6933,7 @@
         <v>5510177</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H147" s="86" t="n">
         <v>6</v>
@@ -6932,7 +6942,7 @@
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B148" s="29" t="n">
         <v>90467</v>
@@ -6947,7 +6957,7 @@
         <v>2262535</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H148" s="86" t="n">
         <v>6</v>
@@ -6956,7 +6966,7 @@
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B149" s="29" t="n">
         <v>47388</v>
@@ -6968,10 +6978,10 @@
         <v>1</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H149" s="86" t="n">
         <v>6</v>
@@ -6980,7 +6990,7 @@
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="48" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B150" s="29" t="n">
         <v>309092</v>
@@ -6992,10 +7002,10 @@
         <v>1</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>7</v>
@@ -7007,7 +7017,7 @@
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="48" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B151" s="87" t="n">
         <v>666</v>
@@ -7019,10 +7029,10 @@
         <v>1</v>
       </c>
       <c r="E151" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="F151" s="24" t="s">
         <v>365</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>364</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>7</v>
@@ -7034,7 +7044,7 @@
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="48" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B152" s="87" t="n">
         <v>311</v>
@@ -7046,10 +7056,10 @@
         <v>1</v>
       </c>
       <c r="E152" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>7</v>
@@ -7061,7 +7071,7 @@
     </row>
     <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B153" s="87" t="n">
         <v>28648</v>
@@ -7076,7 +7086,7 @@
         <v>5510402</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H153" s="86" t="n">
         <v>6</v>
@@ -7085,7 +7095,7 @@
     </row>
     <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B154" s="87" t="n">
         <v>38683</v>
@@ -7100,7 +7110,7 @@
         <v>5509256</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H154" s="86" t="n">
         <v>6</v>
@@ -7109,7 +7119,7 @@
     </row>
     <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B155" s="87" t="n">
         <v>34671</v>
@@ -7124,7 +7134,7 @@
         <v>5509265</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H155" s="86" t="n">
         <v>6</v>
@@ -7133,7 +7143,7 @@
     </row>
     <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B156" s="87" t="n">
         <v>23641</v>
@@ -7148,7 +7158,7 @@
         <v>5518342</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H156" s="86" t="n">
         <v>6</v>
@@ -7157,7 +7167,7 @@
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="36" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B157" s="87" t="n">
         <v>26310</v>
@@ -7172,7 +7182,7 @@
         <v>2262004</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H157" s="86" t="n">
         <v>6</v>
@@ -7181,7 +7191,7 @@
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B158" s="87" t="n">
         <v>23771</v>
@@ -7196,7 +7206,7 @@
         <v>2262573</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H158" s="86" t="n">
         <v>6</v>
@@ -7205,7 +7215,7 @@
     </row>
     <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B159" s="87" t="n">
         <v>63384</v>
@@ -7220,7 +7230,7 @@
         <v>2262504</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H159" s="86" t="n">
         <v>6</v>
@@ -7229,7 +7239,7 @@
     </row>
     <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B160" s="87" t="n">
         <v>15247</v>
@@ -7244,7 +7254,7 @@
         <v>282333</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H160" s="86" t="n">
         <v>6</v>
@@ -7253,7 +7263,7 @@
     </row>
     <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B161" s="89" t="n">
         <v>50865</v>
@@ -7268,7 +7278,7 @@
         <v>2261380</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H161" s="86" t="n">
         <v>6</v>
@@ -7277,7 +7287,7 @@
     </row>
     <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B162" s="87" t="n">
         <v>42066</v>
@@ -7292,7 +7302,7 @@
         <v>3263</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H162" s="86" t="n">
         <v>6</v>
@@ -7301,7 +7311,7 @@
     </row>
     <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B163" s="87" t="n">
         <v>911</v>
@@ -7313,10 +7323,10 @@
         <v>1</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H163" s="86" t="n">
         <v>6</v>
@@ -7325,7 +7335,7 @@
     </row>
     <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B164" s="87" t="n">
         <v>10963</v>
@@ -7337,10 +7347,10 @@
         <v>1</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H164" s="86" t="n">
         <v>6</v>
@@ -7349,7 +7359,7 @@
     </row>
     <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B165" s="87" t="n">
         <v>110446</v>
@@ -7361,10 +7371,10 @@
         <v>1</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H165" s="86" t="n">
         <v>6</v>
@@ -7373,7 +7383,7 @@
     </row>
     <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B166" s="87" t="n">
         <v>259728</v>
@@ -7385,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H166" s="86" t="n">
         <v>6</v>
@@ -7397,7 +7407,7 @@
     </row>
     <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B167" s="87" t="n">
         <v>71938</v>
@@ -7412,7 +7422,7 @@
         <v>2261167</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H167" s="86" t="n">
         <v>6</v>
@@ -7421,7 +7431,7 @@
     </row>
     <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B168" s="87" t="n">
         <v>4706</v>
@@ -7433,10 +7443,10 @@
         <v>1</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H168" s="86" t="n">
         <v>6</v>
@@ -7445,7 +7455,7 @@
     </row>
     <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B169" s="87" t="n">
         <v>13911</v>
@@ -7460,7 +7470,7 @@
         <v>370293</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H169" s="86" t="n">
         <v>6</v>
@@ -7469,7 +7479,7 @@
     </row>
     <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="36" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B170" s="87" t="n">
         <v>6544</v>
@@ -7484,7 +7494,7 @@
         <v>1940</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H170" s="86" t="n">
         <v>6</v>
@@ -7493,7 +7503,7 @@
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B171" s="32" t="n">
         <v>18764</v>
@@ -7505,10 +7515,10 @@
         <v>1</v>
       </c>
       <c r="E171" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H171" s="86" t="n">
         <v>6</v>
@@ -7517,7 +7527,7 @@
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B172" s="44" t="n">
         <v>4560</v>
@@ -7529,10 +7539,10 @@
         <v>1</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H172" s="86" t="n">
         <v>6</v>
@@ -7541,7 +7551,7 @@
     </row>
     <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B173" s="32" t="n">
         <v>9564</v>
@@ -7553,16 +7563,16 @@
         <v>1</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H173" s="86" t="n">
         <v>6</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7578,7 +7588,7 @@
     </row>
     <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="88" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B175" s="44" t="n">
         <v>49509</v>
@@ -7590,21 +7600,21 @@
         <v>1</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F175" s="24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H175" s="92" t="n">
         <v>7</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="93" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B176" s="94" t="n">
         <v>51110</v>
@@ -7619,7 +7629,7 @@
         <v>3855</v>
       </c>
       <c r="F176" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>8</v>
@@ -7631,7 +7641,7 @@
     </row>
     <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="93" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B177" s="94" t="n">
         <v>119850</v>
@@ -7643,10 +7653,10 @@
         <v>1</v>
       </c>
       <c r="E177" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="F177" s="24" t="s">
         <v>423</v>
-      </c>
-      <c r="F177" s="24" t="s">
-        <v>422</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>8</v>
@@ -7658,7 +7668,7 @@
     </row>
     <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B178" s="44" t="n">
         <v>16157</v>
@@ -7670,10 +7680,10 @@
         <v>1</v>
       </c>
       <c r="E178" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H178" s="92" t="n">
         <v>7</v>
@@ -7682,7 +7692,7 @@
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B179" s="44" t="n">
         <v>18828</v>
@@ -7694,10 +7704,10 @@
         <v>1</v>
       </c>
       <c r="E179" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H179" s="92" t="n">
         <v>7</v>
@@ -7706,7 +7716,7 @@
     </row>
     <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B180" s="44" t="n">
         <v>18641</v>
@@ -7718,10 +7728,10 @@
         <v>1</v>
       </c>
       <c r="E180" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H180" s="92" t="n">
         <v>7</v>
@@ -7730,7 +7740,7 @@
     </row>
     <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B181" s="44" t="n">
         <v>22091</v>
@@ -7742,10 +7752,10 @@
         <v>1</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H181" s="92" t="n">
         <v>7</v>
@@ -7754,7 +7764,7 @@
     </row>
     <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B182" s="44" t="n">
         <v>21385</v>
@@ -7766,10 +7776,10 @@
         <v>1</v>
       </c>
       <c r="E182" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H182" s="92" t="n">
         <v>7</v>
@@ -7778,7 +7788,7 @@
     </row>
     <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="95" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B183" s="44" t="n">
         <v>37450</v>
@@ -7790,10 +7800,10 @@
         <v>1</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>9</v>
@@ -7805,7 +7815,7 @@
     </row>
     <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="95" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B184" s="44" t="n">
         <v>10045</v>
@@ -7817,10 +7827,10 @@
         <v>1</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>9</v>
@@ -7832,7 +7842,7 @@
     </row>
     <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B185" s="44" t="n">
         <v>92147</v>
@@ -7844,10 +7854,10 @@
         <v>1</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H185" s="92" t="n">
         <v>7</v>
@@ -7856,7 +7866,7 @@
     </row>
     <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B186" s="44" t="n">
         <v>42900</v>
@@ -7868,10 +7878,10 @@
         <v>1</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H186" s="92" t="n">
         <v>7</v>
@@ -7880,7 +7890,7 @@
     </row>
     <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B187" s="44" t="n">
         <v>9640</v>
@@ -7892,10 +7902,10 @@
         <v>1</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F187" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H187" s="92" t="n">
         <v>7</v>
@@ -7904,7 +7914,7 @@
     </row>
     <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="36" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B188" s="44" t="n">
         <v>15474</v>
@@ -7916,10 +7926,10 @@
         <v>1</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H188" s="92" t="n">
         <v>7</v>
@@ -7928,7 +7938,7 @@
     </row>
     <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B189" s="44" t="n">
         <v>24937</v>
@@ -7940,10 +7950,10 @@
         <v>1</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F189" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H189" s="92" t="n">
         <v>7</v>
@@ -7952,7 +7962,7 @@
     </row>
     <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="36" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B190" s="44" t="n">
         <v>14319</v>
@@ -7964,10 +7974,10 @@
         <v>1</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F190" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H190" s="92" t="n">
         <v>7</v>
@@ -7976,7 +7986,7 @@
     </row>
     <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="36" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B191" s="44" t="n">
         <v>17358</v>
@@ -7988,10 +7998,10 @@
         <v>1</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F191" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H191" s="92" t="n">
         <v>7</v>
@@ -8000,7 +8010,7 @@
     </row>
     <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="36" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B192" s="44" t="n">
         <v>46075</v>
@@ -8012,10 +8022,10 @@
         <v>1</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F192" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H192" s="92" t="n">
         <v>7</v>
@@ -8024,7 +8034,7 @@
     </row>
     <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="36" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B193" s="44" t="n">
         <v>24773</v>
@@ -8036,10 +8046,10 @@
         <v>1</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H193" s="92" t="n">
         <v>7</v>
@@ -8048,7 +8058,7 @@
     </row>
     <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="36" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B194" s="44" t="n">
         <v>36173</v>
@@ -8060,10 +8070,10 @@
         <v>1</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H194" s="92" t="n">
         <v>7</v>
@@ -8072,7 +8082,7 @@
     </row>
     <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="36" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B195" s="96" t="n">
         <v>66445</v>
@@ -8084,10 +8094,10 @@
         <v>1</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H195" s="92" t="n">
         <v>7</v>
@@ -8096,7 +8106,7 @@
     </row>
     <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="36" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B196" s="32" t="n">
         <v>76705</v>
@@ -8108,10 +8118,10 @@
         <v>1</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H196" s="92" t="n">
         <v>7</v>
@@ -8120,7 +8130,7 @@
     </row>
     <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="36" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B197" s="44" t="n">
         <v>60945</v>
@@ -8132,10 +8142,10 @@
         <v>1</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H197" s="92" t="n">
         <v>7</v>
@@ -8144,7 +8154,7 @@
     </row>
     <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="36" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B198" s="44" t="n">
         <v>46237</v>
@@ -8156,10 +8166,10 @@
         <v>1</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H198" s="92" t="n">
         <v>7</v>
@@ -8168,7 +8178,7 @@
     </row>
     <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="36" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B199" s="44" t="n">
         <v>56994</v>
@@ -8180,10 +8190,10 @@
         <v>1</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F199" s="24" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H199" s="92" t="n">
         <v>7</v>
@@ -8192,7 +8202,7 @@
     </row>
     <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="36" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B200" s="44" t="n">
         <v>180061</v>
@@ -8204,10 +8214,10 @@
         <v>1</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F200" s="24" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H200" s="92" t="n">
         <v>7</v>
@@ -8216,7 +8226,7 @@
     </row>
     <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="36" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B201" s="32" t="n">
         <v>59166</v>
@@ -8228,10 +8238,10 @@
         <v>1</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F201" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H201" s="92" t="n">
         <v>7</v>
@@ -8240,7 +8250,7 @@
     </row>
     <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B202" s="32" t="n">
         <v>34036</v>
@@ -8252,10 +8262,10 @@
         <v>1</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F202" s="24" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H202" s="92" t="n">
         <v>7</v>
@@ -8264,7 +8274,7 @@
     </row>
     <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B203" s="32" t="n">
         <v>17425</v>
@@ -8276,10 +8286,10 @@
         <v>1</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F203" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H203" s="92" t="n">
         <v>7</v>
@@ -8288,7 +8298,7 @@
     </row>
     <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="36" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B204" s="32" t="n">
         <v>244632</v>
@@ -8300,10 +8310,10 @@
         <v>1</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H204" s="92" t="n">
         <v>7</v>
@@ -8312,7 +8322,7 @@
     </row>
     <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B205" s="32" t="n">
         <v>44291</v>
@@ -8324,10 +8334,10 @@
         <v>1</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H205" s="92" t="n">
         <v>7</v>
@@ -8336,7 +8346,7 @@
     </row>
     <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="93" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B206" s="32" t="n">
         <v>36408</v>
@@ -8348,10 +8358,10 @@
         <v>1</v>
       </c>
       <c r="E206" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>10</v>
@@ -8363,7 +8373,7 @@
     </row>
     <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="93" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B207" s="32" t="n">
         <v>27245</v>
@@ -8375,10 +8385,10 @@
         <v>1</v>
       </c>
       <c r="E207" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="F207" s="24" t="s">
         <v>510</v>
-      </c>
-      <c r="F207" s="24" t="s">
-        <v>509</v>
       </c>
       <c r="G207" s="1" t="n">
         <v>10</v>
@@ -8390,7 +8400,7 @@
     </row>
     <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="36" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B208" s="32" t="n">
         <v>109174</v>
@@ -8402,10 +8412,10 @@
         <v>1</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H208" s="92" t="n">
         <v>7</v>
@@ -8414,7 +8424,7 @@
     </row>
     <row r="209" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B209" s="32" t="n">
         <v>65889</v>
@@ -8426,16 +8436,16 @@
         <v>1</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F209" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H209" s="92" t="n">
         <v>7</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8450,7 +8460,7 @@
     </row>
     <row r="211" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="31" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B211" s="32" t="n">
         <v>44725</v>
@@ -8465,13 +8475,13 @@
         <v>3275</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H211" s="98" t="n">
         <v>2</v>
       </c>
       <c r="I211" s="99" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8486,7 +8496,7 @@
     </row>
     <row r="213" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="31" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B213" s="32" t="n">
         <v>188294</v>
@@ -8501,13 +8511,13 @@
         <v>3868</v>
       </c>
       <c r="F213" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H213" s="98" t="n">
         <v>3</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -8529,10 +8539,10 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="74:74 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
@@ -8544,17 +8554,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="101" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B1" s="101" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="102" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D1" s="102"/>
       <c r="E1" s="103" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F1" s="103"/>
       <c r="G1" s="7"/>
@@ -8566,16 +8576,16 @@
       <c r="A2" s="101"/>
       <c r="B2" s="101"/>
       <c r="C2" s="104" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D2" s="104" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="105" t="s">
         <v>527</v>
       </c>
-      <c r="E2" s="105" t="s">
-        <v>526</v>
-      </c>
       <c r="F2" s="105" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8584,10 +8594,10 @@
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C3" s="106" t="n">
         <v>76705</v>
@@ -8608,10 +8618,10 @@
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C4" s="108" t="n">
         <v>60945</v>
@@ -8642,10 +8652,10 @@
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C6" s="106" t="n">
         <v>36408</v>
@@ -8666,10 +8676,10 @@
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>510</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>509</v>
       </c>
       <c r="C7" s="106" t="n">
         <v>27245</v>
@@ -8703,7 +8713,7 @@
         <v>3855</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C9" s="114" t="n">
         <v>51110</v>
@@ -8724,10 +8734,10 @@
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>423</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>422</v>
       </c>
       <c r="C10" s="114" t="n">
         <v>119850</v>
